--- a/Oplevering/projectdocumentatie/Urenregistratie Sybren.xlsx
+++ b/Oplevering/projectdocumentatie/Urenregistratie Sybren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sybren\Desktop\git\Oplevering\Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{530EBE03-0518-4C39-B7EC-47E7F266BB9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E12E2BD9-6F0F-4C15-8FCE-64D2A23CF6B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" xr2:uid="{1273F704-7EDE-4E6A-A655-399478B98C3A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Wat gedaan?</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Uitleg stakeholders / Bepalen hoe factuur in database moet komen te staan / Wilco meehelpen</t>
+  </si>
+  <si>
+    <t>Wilco helpen met factuur / bezig met pakkerverslag</t>
+  </si>
+  <si>
+    <t>Wilco helpen met voorraad bijwerken / ERD verslag maken</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="B4:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,10 +871,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>43438</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>43439</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40">
         <f>SUM(G6:G39)</f>
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
